--- a/data/trans_dic/P14B23_2016_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P14B23_2016_2023-Provincia-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01100383214503552</v>
+        <v>0.01158456455619282</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.005219360624029503</v>
+        <v>0.005187713718198844</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04121517983979083</v>
+        <v>0.04447655673632598</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02248746186426959</v>
+        <v>0.02433693049702287</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03034276206803384</v>
+        <v>0.03168434854870635</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01655997947385893</v>
+        <v>0.01747604424680421</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05154926061094784</v>
+        <v>0.05053515710889132</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03098370701687777</v>
+        <v>0.03081267217966682</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1109989769874659</v>
+        <v>0.1158751729198106</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05310846263765946</v>
+        <v>0.05584939390902607</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06962610730938651</v>
+        <v>0.06969788806220846</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03483752689948933</v>
+        <v>0.0359002005578619</v>
       </c>
     </row>
     <row r="7">
@@ -694,7 +694,7 @@
         <v>0.01065654164158892</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.04021101345579738</v>
+        <v>0.04021101345579737</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.04162195306103898</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.00418240056766511</v>
+        <v>0.004156375479431371</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02338447222683171</v>
+        <v>0.02369175502513341</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02733143628994842</v>
+        <v>0.02618965826941632</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0736307147236878</v>
+        <v>0.07355583748685049</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01779264824821718</v>
+        <v>0.0181547439404273</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05375865206123823</v>
+        <v>0.05360112408072677</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02362108670160349</v>
+        <v>0.02318723997468775</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06028576224095303</v>
+        <v>0.06186445535239535</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06267171056474703</v>
+        <v>0.06344130043505009</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1153160065057604</v>
+        <v>0.1161497900108195</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03795263618261675</v>
+        <v>0.03837114403138325</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08022608799641029</v>
+        <v>0.08245533657584976</v>
       </c>
     </row>
     <row r="10">
@@ -800,19 +800,19 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.02476295269252141</v>
+        <v>0.02407706738356531</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02130025504529498</v>
+        <v>0.02320532859224224</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0341249601296741</v>
+        <v>0.03526819920965984</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01151548982704479</v>
+        <v>0.01258301338854718</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03499866177710265</v>
+        <v>0.034286142157757</v>
       </c>
     </row>
     <row r="12">
@@ -824,19 +824,19 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.0691608991942395</v>
+        <v>0.07099588169281235</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06806359206885139</v>
+        <v>0.06934010373055632</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06879426186673936</v>
+        <v>0.06874893986231158</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03547598749297388</v>
+        <v>0.03652966014220648</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06198988788241114</v>
+        <v>0.06226033175516012</v>
       </c>
     </row>
     <row r="13">
@@ -854,7 +854,7 @@
         <v>0.01349152859321289</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04245174044080785</v>
+        <v>0.04245174044080784</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.02955573306048607</v>
@@ -866,7 +866,7 @@
         <v>0.0217073331065356</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.04549424476540539</v>
+        <v>0.0454942447654054</v>
       </c>
     </row>
     <row r="14">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.00506014785534198</v>
+        <v>0.005145895953297122</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02398543239154154</v>
+        <v>0.02339604826590056</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01589450890999549</v>
+        <v>0.01556019793064096</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03523672646907536</v>
+        <v>0.03412627346482576</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01240855613185602</v>
+        <v>0.01331355780914934</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03414382109874421</v>
+        <v>0.03361292434835778</v>
       </c>
     </row>
     <row r="15">
@@ -903,22 +903,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03020552942820326</v>
+        <v>0.02870647191392018</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07290450357144107</v>
+        <v>0.07311382634351332</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05011058059358662</v>
+        <v>0.05024951331311201</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06982585908775539</v>
+        <v>0.06683593855076093</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03531610831738336</v>
+        <v>0.03702233357099721</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06431544896410159</v>
+        <v>0.06365055501966402</v>
       </c>
     </row>
     <row r="16">
@@ -948,7 +948,7 @@
         <v>0.04862683869922364</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.02383394745074679</v>
+        <v>0.02383394745074678</v>
       </c>
     </row>
     <row r="17">
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01757810457161279</v>
+        <v>0.01455505334450849</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.002975589929715411</v>
+        <v>0.002989690366926563</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03234134060369573</v>
+        <v>0.03301698736046232</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02176015200695988</v>
+        <v>0.02255059267969948</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02993074945539502</v>
+        <v>0.03101452987943207</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01586342966834627</v>
+        <v>0.01513199901852508</v>
       </c>
     </row>
     <row r="18">
@@ -985,22 +985,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06762337390966038</v>
+        <v>0.06946600201274088</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0300373137210868</v>
+        <v>0.02757929791183967</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09999524536820903</v>
+        <v>0.09836613846199936</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05324532424064848</v>
+        <v>0.05270450029780412</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0732633777720377</v>
+        <v>0.07220618910439477</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03517543290258782</v>
+        <v>0.03531497358647432</v>
       </c>
     </row>
     <row r="19">
@@ -1030,7 +1030,7 @@
         <v>0.04347232681065083</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.04398030304739154</v>
+        <v>0.04398030304739155</v>
       </c>
     </row>
     <row r="20">
@@ -1044,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02732251579808949</v>
+        <v>0.02741682152772425</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04897876276408044</v>
+        <v>0.04884034493277831</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02718840426686047</v>
+        <v>0.02861257960773757</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02851550289181073</v>
+        <v>0.02858937288455901</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.03228296164873841</v>
+        <v>0.03202120785333168</v>
       </c>
     </row>
     <row r="21">
@@ -1067,22 +1067,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02100509004682767</v>
+        <v>0.02128689271524458</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.07001083433598979</v>
+        <v>0.07209206757694349</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.119657277816871</v>
+        <v>0.1183325656872469</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.06350135092082314</v>
+        <v>0.06272414355040906</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.06488903498354728</v>
+        <v>0.06966904909933071</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.05821419957565899</v>
+        <v>0.06003335047360561</v>
       </c>
     </row>
     <row r="22">
@@ -1123,22 +1123,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.003081268973269145</v>
+        <v>0.003033793385289832</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02943836026834261</v>
+        <v>0.03008147045144694</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01695564423344531</v>
+        <v>0.01677300120094166</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05619071253621822</v>
+        <v>0.05634693021709892</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01120597761167469</v>
+        <v>0.01239848022952493</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04747374509783717</v>
+        <v>0.04744442602482888</v>
       </c>
     </row>
     <row r="24">
@@ -1149,22 +1149,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02176965974981474</v>
+        <v>0.02132929045302323</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06748173567069154</v>
+        <v>0.06690336461725019</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04225333449259133</v>
+        <v>0.04421091669733972</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.09063378115393272</v>
+        <v>0.08872725549135969</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.02838112617721645</v>
+        <v>0.02814090847913019</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.07328675257563978</v>
+        <v>0.07282373763931184</v>
       </c>
     </row>
     <row r="25">
@@ -1205,22 +1205,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.009693524228502936</v>
+        <v>0.009947021354369251</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01235817097766338</v>
+        <v>0.01159544820210864</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02868152302152271</v>
+        <v>0.0290446841279752</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.04466105938859064</v>
+        <v>0.04493167638244398</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02077964365279915</v>
+        <v>0.0223446132082319</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.03056999200982776</v>
+        <v>0.03015555991676593</v>
       </c>
     </row>
     <row r="27">
@@ -1231,22 +1231,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02775558481159786</v>
+        <v>0.02819506893826453</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03226459236534554</v>
+        <v>0.03076825138400072</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.05891565199416482</v>
+        <v>0.05676977287709435</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.07299713742167159</v>
+        <v>0.0731056390972695</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.0381937172766515</v>
+        <v>0.03946683711384509</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.04773175789030459</v>
+        <v>0.04741835236829055</v>
       </c>
     </row>
     <row r="28">
@@ -1287,22 +1287,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.009904635097619702</v>
+        <v>0.0099728982461705</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.02726626269664177</v>
+        <v>0.02730078498706004</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.03650957297871499</v>
+        <v>0.0371807017936138</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.05330342144651642</v>
+        <v>0.05337959054315472</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.02518384634110131</v>
+        <v>0.0251798306923334</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.04233742535129774</v>
+        <v>0.04242418755509265</v>
       </c>
     </row>
     <row r="30">
@@ -1313,22 +1313,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.01793813577392668</v>
+        <v>0.01792978533274283</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.04043864925439259</v>
+        <v>0.03995448698142614</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.05146248341927408</v>
+        <v>0.05060769278017249</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.06605448280872191</v>
+        <v>0.06585047341076429</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.03320939766737747</v>
+        <v>0.03340262859577721</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.05163180071213061</v>
+        <v>0.0511115075284987</v>
       </c>
     </row>
     <row r="31">
@@ -1519,22 +1519,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3232</v>
+        <v>3403</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1664</v>
+        <v>1654</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>11859</v>
+        <v>12797</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7107</v>
+        <v>7692</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>17644</v>
+        <v>18424</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>10514</v>
+        <v>11096</v>
       </c>
     </row>
     <row r="7">
@@ -1545,22 +1545,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15143</v>
+        <v>14845</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9879</v>
+        <v>9824</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>31937</v>
+        <v>33340</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>16786</v>
+        <v>17652</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>40487</v>
+        <v>40528</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>22119</v>
+        <v>22793</v>
       </c>
     </row>
     <row r="8">
@@ -1627,22 +1627,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2102</v>
+        <v>2089</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>12386</v>
+        <v>12549</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>14297</v>
+        <v>13699</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>40132</v>
+        <v>40091</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>18249</v>
+        <v>18621</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>57774</v>
+        <v>57605</v>
       </c>
     </row>
     <row r="11">
@@ -1653,22 +1653,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>11871</v>
+        <v>11653</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>31931</v>
+        <v>32767</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>32783</v>
+        <v>33185</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>62852</v>
+        <v>63306</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>38926</v>
+        <v>39356</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>86219</v>
+        <v>88615</v>
       </c>
     </row>
     <row r="12">
@@ -1736,19 +1736,19 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>7825</v>
+        <v>7608</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7163</v>
+        <v>7804</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>12161</v>
+        <v>12569</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>7541</v>
+        <v>8240</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>23532</v>
+        <v>23053</v>
       </c>
     </row>
     <row r="15">
@@ -1760,19 +1760,19 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>21854</v>
+        <v>22434</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>22890</v>
+        <v>23320</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>24517</v>
+        <v>24501</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>23232</v>
+        <v>23922</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>41680</v>
+        <v>41862</v>
       </c>
     </row>
     <row r="16">
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1872</v>
+        <v>1904</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8932</v>
+        <v>8713</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6156</v>
+        <v>6026</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>14869</v>
+        <v>14400</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>9396</v>
+        <v>10082</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>27123</v>
+        <v>26701</v>
       </c>
     </row>
     <row r="19">
@@ -1865,22 +1865,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>11175</v>
+        <v>10620</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>27150</v>
+        <v>27228</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>19407</v>
+        <v>19461</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>29464</v>
+        <v>28202</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>26743</v>
+        <v>28035</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>51090</v>
+        <v>50562</v>
       </c>
     </row>
     <row r="20">
@@ -1947,22 +1947,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3713</v>
+        <v>3074</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>7069</v>
+        <v>7217</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>4936</v>
+        <v>5115</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>12864</v>
+        <v>13330</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>6852</v>
+        <v>6536</v>
       </c>
     </row>
     <row r="23">
@@ -1973,22 +1973,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>14283</v>
+        <v>14673</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>6160</v>
+        <v>5656</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>21858</v>
+        <v>21502</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>12077</v>
+        <v>11955</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>31489</v>
+        <v>31035</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>15193</v>
+        <v>15253</v>
       </c>
     </row>
     <row r="24">
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>7396</v>
+        <v>7422</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>13377</v>
+        <v>13339</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>7153</v>
+        <v>7528</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>15291</v>
+        <v>15331</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>17233</v>
+        <v>17093</v>
       </c>
     </row>
     <row r="27">
@@ -2081,22 +2081,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5527</v>
+        <v>5601</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>18952</v>
+        <v>19516</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>32680</v>
+        <v>32318</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>16707</v>
+        <v>16503</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>34796</v>
+        <v>37359</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>31075</v>
+        <v>32046</v>
       </c>
     </row>
     <row r="28">
@@ -2163,22 +2163,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2023</v>
+        <v>1992</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>21099</v>
+        <v>21560</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>11721</v>
+        <v>11595</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>43265</v>
+        <v>43385</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>15104</v>
+        <v>16711</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>70578</v>
+        <v>70535</v>
       </c>
     </row>
     <row r="31">
@@ -2189,22 +2189,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>14293</v>
+        <v>14004</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>48365</v>
+        <v>47951</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>29209</v>
+        <v>30563</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>69785</v>
+        <v>68317</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>38254</v>
+        <v>37930</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>108954</v>
+        <v>108266</v>
       </c>
     </row>
     <row r="32">
@@ -2271,22 +2271,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>7547</v>
+        <v>7745</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>9863</v>
+        <v>9254</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>23696</v>
+        <v>23996</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>37096</v>
+        <v>37321</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>33346</v>
+        <v>35858</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>49789</v>
+        <v>49114</v>
       </c>
     </row>
     <row r="35">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>21610</v>
+        <v>21952</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>25749</v>
+        <v>24555</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>48674</v>
+        <v>46901</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>60632</v>
+        <v>60722</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>61291</v>
+        <v>63334</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>77740</v>
+        <v>77229</v>
       </c>
     </row>
     <row r="36">
@@ -2379,22 +2379,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>33620</v>
+        <v>33852</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>96181</v>
+        <v>96303</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>129374</v>
+        <v>131752</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>198819</v>
+        <v>199103</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>174723</v>
+        <v>174696</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>307261</v>
+        <v>307890</v>
       </c>
     </row>
     <row r="39">
@@ -2405,22 +2405,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>60888</v>
+        <v>60860</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>142647</v>
+        <v>140939</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>182361</v>
+        <v>179332</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>246380</v>
+        <v>245619</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>230404</v>
+        <v>231745</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>374714</v>
+        <v>370938</v>
       </c>
     </row>
     <row r="40">
